--- a/detail/Ким Ю Чена 63.xlsx
+++ b/detail/Ким Ю Чена 63.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
   <workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Evgenij/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="21840" windowHeight="12675"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="21840" windowHeight="12680"/>
   </bookViews>
   <sheets>
-    <sheet name="декабрь 2018" sheetId="86" r:id="rId1"/>
-    <sheet name="ноябрь 2018" sheetId="85" r:id="rId2"/>
+    <sheet name="февраль 2019" sheetId="88" r:id="rId1"/>
+    <sheet name="январь 2019" sheetId="87" r:id="rId2"/>
+    <sheet name="декабрь 2018" sheetId="86" r:id="rId3"/>
+    <sheet name="ноябрь 2018" sheetId="85" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>Поступило в счет оплаты содержания и ремонта жилья,коммунальных услуг</t>
   </si>
@@ -92,6 +102,33 @@
   </si>
   <si>
     <t xml:space="preserve">Выполненные работы: 1. Завершены работы по монтажу уличного освещения. </t>
+  </si>
+  <si>
+    <t>Отчет  по ул. Ким Ю Чена 63                                                          за период 01.01.2018-31.01.2019гг.</t>
+  </si>
+  <si>
+    <t>Задолженность собственников на 01.01.2019</t>
+  </si>
+  <si>
+    <t>Начислено за январь 2019г</t>
+  </si>
+  <si>
+    <t>Просроченная задолженность на 31.01.2019</t>
+  </si>
+  <si>
+    <t>Отчет  по ул. Ким Ю Чена 63                                                          за период 01.02.2018-28.02.2019гг.</t>
+  </si>
+  <si>
+    <t>Задолженность собственников на 01.02.2019</t>
+  </si>
+  <si>
+    <t>Начислено за февраль 2019г</t>
+  </si>
+  <si>
+    <t>Просроченная задолженность на 28.02.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполненные работы: 1. Ведется подготовка к проведениию работ по замене электрооборудования в первом подъезде, ремонту подъезда, яможному ремонту дороги во дворе дома.  </t>
   </si>
 </sst>
 </file>
@@ -315,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -327,6 +364,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -720,317 +769,321 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="8">
+        <f>'январь 2019'!H24</f>
+        <v>348479.20999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="2">
+        <v>817783.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="2">
-        <v>873962.86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="2">
         <f>SUM(F9:H20)</f>
-        <v>619953.15999999992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+        <v>836590.07000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="21">
-        <f>1665.6+850.67+531.07+520.66+174578.23</f>
-        <v>178146.23</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="25">
+        <f>234773.7+2271.6+1142.06+699.17+698.2</f>
+        <v>239584.73000000004</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="21">
-        <f>65686.65</f>
-        <v>65686.649999999994</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="25">
+        <f>83534.82</f>
+        <v>83534.820000000007</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="21">
-        <f>43326.83</f>
-        <v>43326.83</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="25">
+        <f>44387.76</f>
+        <v>44387.76</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="21">
-        <f>41337.67</f>
-        <v>41337.67</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="25">
+        <f>46668.04</f>
+        <v>46668.04</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="21">
-        <f>76331.73</f>
-        <v>76331.73</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="25">
+        <f>84862.73</f>
+        <v>84862.73</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25">
+        <f>6070.14</f>
+        <v>6070.14</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="25">
+        <f>20855.49</f>
+        <v>20855.490000000002</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="21">
-        <f>215124.05</f>
-        <v>215124.05</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="25">
+        <f>310626.36</f>
+        <v>310626.36</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="2"/>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="4">
-        <f>1049262.01-H7</f>
-        <v>175299.15000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <f>1294464.32-H7</f>
+        <v>476681.07000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1040,62 +1093,62 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+    <row r="26" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:9" ht="10.35" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:9" ht="10.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="34">
@@ -1141,299 +1194,320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист9"/>
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:H27"/>
+      <selection activeCell="F12" sqref="F12:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="8">
+        <f>'декабрь 2018'!H24</f>
+        <v>177974.34000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="2">
+        <v>969766.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="2">
-        <v>795252.31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="2">
         <f>SUM(F9:H20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+        <v>706133.15999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="25">
+        <f>172383.18+1502.74+830.22+491.05+452.43</f>
+        <v>175659.61999999997</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="25">
+        <f>65253.34</f>
+        <v>65253.34</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="25">
+        <f>39916.79</f>
+        <v>39916.79</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="25">
+        <f>37178.57</f>
+        <v>37178.57</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="25">
+        <f>65998.58</f>
+        <v>65998.58</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25">
+        <f>5968.92</f>
+        <v>5968.92</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="25">
+        <f>316157.34</f>
+        <v>316157.34000000003</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="2"/>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="4">
-        <f>795252.31-H7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <f>1318245.42-H7</f>
+        <v>348479.20999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1443,62 +1517,62 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+    <row r="26" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:9" ht="10.35" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:9" ht="10.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="34">
@@ -1540,4 +1614,830 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="2">
+        <v>876638.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="2">
+        <f>SUM(F9:H20)</f>
+        <v>619953.15999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="25">
+        <f>1665.6+850.67+531.07+520.66+174578.23</f>
+        <v>178146.23</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="25">
+        <f>65686.65</f>
+        <v>65686.649999999994</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="25">
+        <f>43326.83</f>
+        <v>43326.83</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="25">
+        <f>41337.67</f>
+        <v>41337.67</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="25">
+        <f>76331.73</f>
+        <v>76331.73</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="25">
+        <f>215124.05</f>
+        <v>215124.05</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="4">
+        <f>1054612.37-H7</f>
+        <v>177974.34000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:9" ht="10.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A26:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H30"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист9" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A2:I33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="2">
+        <v>797927.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="2">
+        <f>SUM(F9:H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="4">
+        <f>797927.5-H7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:9" ht="10.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A26:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H30"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A23:G23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>